--- a/docs-fitness/calorie-calculator.xlsx
+++ b/docs-fitness/calorie-calculator.xlsx
@@ -155,15 +155,15 @@
       </c>
       <c r="B5" s="4">
         <f t="shared" ref="B5:D5" si="2">B8/4</f>
-        <v>319.1225</v>
+        <v>302.54</v>
       </c>
       <c r="C5" s="4">
         <f t="shared" si="2"/>
-        <v>194.1225</v>
+        <v>177.54</v>
       </c>
       <c r="D5" s="4">
         <f t="shared" si="2"/>
-        <v>444.1225</v>
+        <v>427.54</v>
       </c>
     </row>
     <row r="6">
@@ -171,16 +171,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4">
-        <f t="shared" ref="B6:D6" si="3">0.35*2.2*B2</f>
-        <v>51.59</v>
+        <f t="shared" ref="B6:D6" si="3">0.4*2.2*B2</f>
+        <v>58.96</v>
       </c>
       <c r="C6" s="4">
         <f t="shared" si="3"/>
-        <v>51.59</v>
+        <v>58.96</v>
       </c>
       <c r="D6" s="4">
         <f t="shared" si="3"/>
-        <v>51.59</v>
+        <v>58.96</v>
       </c>
     </row>
     <row r="7">
@@ -193,15 +193,15 @@
       </c>
       <c r="B8" s="3">
         <f t="shared" ref="B8:D8" si="4">B1-(B4*4+B6*9)</f>
-        <v>1276.49</v>
+        <v>1210.16</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="4"/>
-        <v>776.49</v>
+        <v>710.16</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" si="4"/>
-        <v>1776.49</v>
+        <v>1710.16</v>
       </c>
     </row>
   </sheetData>

--- a/docs-fitness/calorie-calculator.xlsx
+++ b/docs-fitness/calorie-calculator.xlsx
@@ -11,12 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Energie necesara</t>
   </si>
   <si>
     <t>Greutate</t>
+  </si>
+  <si>
+    <t>maintaining</t>
+  </si>
+  <si>
+    <t>cutting</t>
+  </si>
+  <si>
+    <t>bulking</t>
   </si>
   <si>
     <t>PROTEINE</t>
@@ -49,7 +58,7 @@
     </font>
     <font/>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -70,20 +79,26 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF4A86E8"/>
-        <bgColor rgb="FF4A86E8"/>
+        <fgColor rgb="FFF9CB9C"/>
+        <bgColor rgb="FFF9CB9C"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB45F06"/>
-        <bgColor rgb="FFB45F06"/>
+        <fgColor rgb="FFF6B26B"/>
+        <bgColor rgb="FFF6B26B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE69138"/>
+        <bgColor rgb="FFE69138"/>
       </patternFill>
     </fill>
   </fills>
@@ -107,7 +122,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -119,19 +134,22 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -166,15 +184,15 @@
       </c>
       <c r="B1" s="2">
         <f>B2*2.2*15.3</f>
-        <v>2288.88</v>
+        <v>2275.416</v>
       </c>
       <c r="C1" s="2">
         <f>B1-500</f>
-        <v>1788.88</v>
+        <v>1775.416</v>
       </c>
       <c r="D1" s="2">
         <f>B1+300</f>
-        <v>2588.88</v>
+        <v>2575.416</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -182,91 +200,98 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>68.0</v>
+        <v>67.6</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>68</v>
+        <v>67.6</v>
       </c>
       <c r="D2" s="4">
         <f>B2</f>
-        <v>68</v>
+        <v>67.6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4" s="7">
         <f t="shared" ref="B4:D4" si="1">1.9*B2</f>
-        <v>129.2</v>
+        <v>128.44</v>
       </c>
       <c r="C4" s="7">
         <f t="shared" si="1"/>
-        <v>129.2</v>
+        <v>128.44</v>
       </c>
       <c r="D4" s="7">
         <f t="shared" si="1"/>
-        <v>129.2</v>
+        <v>128.44</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="8">
         <f t="shared" ref="B5:D5" si="2">B8/4</f>
-        <v>308.38</v>
+        <v>306.566</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="2"/>
-        <v>183.38</v>
+        <v>181.566</v>
       </c>
       <c r="D5" s="8">
         <f t="shared" si="2"/>
-        <v>383.38</v>
+        <v>381.566</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B6" s="9">
         <f t="shared" ref="B6:D6" si="3">0.4*2.2*B2</f>
-        <v>59.84</v>
+        <v>59.488</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" si="3"/>
-        <v>59.84</v>
+        <v>59.488</v>
       </c>
       <c r="D6" s="9">
         <f t="shared" si="3"/>
-        <v>59.84</v>
+        <v>59.488</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5">
+        <v>8</v>
+      </c>
+      <c r="B8" s="10">
         <f t="shared" ref="B8:D8" si="4">B1-(B4*4+B6*9)</f>
-        <v>1233.52</v>
-      </c>
-      <c r="C8" s="5">
+        <v>1226.264</v>
+      </c>
+      <c r="C8" s="10">
         <f t="shared" si="4"/>
-        <v>733.52</v>
-      </c>
-      <c r="D8" s="5">
+        <v>726.264</v>
+      </c>
+      <c r="D8" s="10">
         <f t="shared" si="4"/>
-        <v>1533.52</v>
+        <v>1526.264</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>

--- a/docs-fitness/calorie-calculator.xlsx
+++ b/docs-fitness/calorie-calculator.xlsx
@@ -133,7 +133,7 @@
     <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -184,15 +184,15 @@
       </c>
       <c r="B1" s="2">
         <f>B2*2.2*15.3</f>
-        <v>2275.416</v>
+        <v>2255.22</v>
       </c>
       <c r="C1" s="2">
         <f>B1-500</f>
-        <v>1775.416</v>
+        <v>1755.22</v>
       </c>
       <c r="D1" s="2">
         <f>B1+300</f>
-        <v>2575.416</v>
+        <v>2555.22</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
@@ -200,15 +200,15 @@
         <v>1</v>
       </c>
       <c r="B2" s="3">
-        <v>67.6</v>
+        <v>67.0</v>
       </c>
       <c r="C2" s="4">
         <f>B2</f>
-        <v>67.6</v>
+        <v>67</v>
       </c>
       <c r="D2" s="4">
         <f>B2</f>
-        <v>67.6</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -227,16 +227,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="7">
-        <f t="shared" ref="B4:D4" si="1">1.9*B2</f>
-        <v>128.44</v>
+        <f>1.9*B2</f>
+        <v>127.3</v>
       </c>
       <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>128.44</v>
+        <f>B4</f>
+        <v>127.3</v>
       </c>
       <c r="D4" s="7">
-        <f t="shared" si="1"/>
-        <v>128.44</v>
+        <f>B4</f>
+        <v>127.3</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
@@ -244,16 +244,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="8">
-        <f t="shared" ref="B5:D5" si="2">B8/4</f>
-        <v>306.566</v>
+        <f t="shared" ref="B5:D5" si="1">B8/4</f>
+        <v>303.845</v>
       </c>
       <c r="C5" s="8">
-        <f t="shared" si="2"/>
-        <v>181.566</v>
+        <f t="shared" si="1"/>
+        <v>178.845</v>
       </c>
       <c r="D5" s="8">
-        <f t="shared" si="2"/>
-        <v>381.566</v>
+        <f t="shared" si="1"/>
+        <v>378.845</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -261,16 +261,16 @@
         <v>7</v>
       </c>
       <c r="B6" s="9">
-        <f t="shared" ref="B6:D6" si="3">0.4*2.2*B2</f>
-        <v>59.488</v>
+        <f t="shared" ref="B6:D6" si="2">0.4*2.2*B2</f>
+        <v>58.96</v>
       </c>
       <c r="C6" s="9">
-        <f t="shared" si="3"/>
-        <v>59.488</v>
+        <f t="shared" si="2"/>
+        <v>58.96</v>
       </c>
       <c r="D6" s="9">
-        <f t="shared" si="3"/>
-        <v>59.488</v>
+        <f t="shared" si="2"/>
+        <v>58.96</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
@@ -282,16 +282,16 @@
         <v>8</v>
       </c>
       <c r="B8" s="10">
-        <f t="shared" ref="B8:D8" si="4">B1-(B4*4+B6*9)</f>
-        <v>1226.264</v>
+        <f t="shared" ref="B8:D8" si="3">B1-(B4*4+B6*9)</f>
+        <v>1215.38</v>
       </c>
       <c r="C8" s="10">
-        <f t="shared" si="4"/>
-        <v>726.264</v>
+        <f t="shared" si="3"/>
+        <v>715.38</v>
       </c>
       <c r="D8" s="10">
-        <f t="shared" si="4"/>
-        <v>1526.264</v>
+        <f t="shared" si="3"/>
+        <v>1515.38</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1"/>
